--- a/InventoryDetails.xlsx
+++ b/InventoryDetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -581,6 +581,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
